--- a/artfynd/A 31015-2022 artfynd.xlsx
+++ b/artfynd/A 31015-2022 artfynd.xlsx
@@ -798,7 +798,7 @@
         <v>130651842</v>
       </c>
       <c r="B3" t="n">
-        <v>58560</v>
+        <v>58564</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>130651726</v>
       </c>
       <c r="B4" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>130651808</v>
       </c>
       <c r="B5" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>130651688</v>
       </c>
       <c r="B6" t="n">
-        <v>58560</v>
+        <v>58564</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
